--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-09T04:07:59+00:00</t>
+    <t>2023-09-09T05:38:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-09T05:38:27+00:00</t>
+    <t>2023-09-09T06:47:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-09T06:47:15+00:00</t>
+    <t>2023-09-09T23:26:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-09T23:26:31+00:00</t>
+    <t>2023-09-10T00:41:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-10T00:41:30+00:00</t>
+    <t>2023-09-10T21:42:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-10T21:42:15+00:00</t>
+    <t>2023-09-10T21:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-10T21:49:23+00:00</t>
+    <t>2023-09-10T22:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/kohe-obs-microbio-sliceTest/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-10T22:58:03+00:00</t>
+    <t>2023-09-10T23:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
